--- a/Permission Stats.xlsx
+++ b/Permission Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Graduation-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3BED62-F69C-4978-8804-82288298D626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F7EA3-280B-49A3-B654-E4236EF9C9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="791" firstSheet="2" activeTab="5" xr2:uid="{BD4AB7C3-B4B0-443E-94FF-7E4EBBAEED08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="958" activeTab="3" xr2:uid="{BD4AB7C3-B4B0-443E-94FF-7E4EBBAEED08}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions by Type and Count" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="160">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2159,7 +2264,7 @@
   <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:I1048576"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,53 +5946,53 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G1048576 B1:B22 B24:B85 B87:B1048576">
-    <cfRule type="containsText" dxfId="144" priority="11" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="12" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="158" priority="12" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="13" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="157" priority="13" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="14" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="156" priority="14" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="15" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="155" priority="15" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="139" priority="6" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="154" priority="6" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="7" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="153" priority="7" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="8" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="152" priority="8" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="9" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="151" priority="9" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="10" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="150" priority="10" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="containsText" dxfId="134" priority="1" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="2" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="148" priority="2" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="4" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="146" priority="4" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="5" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B86)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,70 +9691,70 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B22 B24:B85 B87:B1048576">
-    <cfRule type="containsText" dxfId="79" priority="16" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="94" priority="16" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="93" priority="17" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="18" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="92" priority="18" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="90" priority="20" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="88" priority="12" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="14" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="86" priority="14" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="10" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13347,70 +13452,70 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B22 B24:B85 B87:B1048576">
-    <cfRule type="containsText" dxfId="59" priority="16" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="20" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="70" priority="20" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",B86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",B86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13422,8 +13527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5930FEDB-987C-4F5F-B91F-0CAEB1F465E1}">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P27" sqref="M1:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13439,7 +13544,8 @@
     <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="46" style="5" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="16" width="18.28515625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -13460,7 +13566,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
@@ -13494,7 +13600,7 @@
         <v>0.15</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
@@ -13528,7 +13634,7 @@
         <v>0.1</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -13562,7 +13668,7 @@
         <v>0.05</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
@@ -13596,7 +13702,7 @@
         <v>0.3</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
@@ -13630,7 +13736,7 @@
         <v>0.25</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
@@ -13664,7 +13770,7 @@
         <v>0.2</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
@@ -13698,7 +13804,7 @@
         <v>0.15</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
@@ -13732,7 +13838,7 @@
         <v>0.15</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
@@ -13766,7 +13872,7 @@
         <v>0.1</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
@@ -13800,7 +13906,7 @@
         <v>0.1</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
@@ -13834,7 +13940,7 @@
         <v>0.05</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
@@ -13868,7 +13974,7 @@
         <v>0.05</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
@@ -13902,7 +14008,7 @@
         <v>0.05</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
@@ -13936,7 +14042,7 @@
         <v>0.4</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
@@ -13970,7 +14076,7 @@
         <v>0.4</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
@@ -14004,7 +14110,7 @@
         <v>0.35</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
@@ -14038,9 +14144,9 @@
         <v>0.35</v>
       </c>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="11"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -14072,9 +14178,9 @@
         <v>0.35</v>
       </c>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="11"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -14106,9 +14212,9 @@
         <v>0.3</v>
       </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="11"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -14140,9 +14246,9 @@
         <v>0.25</v>
       </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="11"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -14174,9 +14280,9 @@
         <v>0.2</v>
       </c>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="11"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -14208,9 +14314,9 @@
         <v>0.2</v>
       </c>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -14242,9 +14348,9 @@
         <v>0.2</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -14276,9 +14382,9 @@
         <v>0.15</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -14310,9 +14416,9 @@
         <v>0.15</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -16474,71 +16580,71 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576 E1:E1048576 I1:I1048576">
-    <cfRule type="containsText" dxfId="109" priority="16" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="124" priority="31" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="17" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="123" priority="32" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="18" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="122" priority="33" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="121" priority="34" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="20" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="120" priority="35" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N17">
-    <cfRule type="containsText" dxfId="104" priority="11" operator="containsText" text="other">
-      <formula>NOT(ISERROR(SEARCH("other",N1)))</formula>
+  <conditionalFormatting sqref="M1:M17">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="other">
+      <formula>NOT(ISERROR(SEARCH("other",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="12" operator="containsText" text="signature">
-      <formula>NOT(ISERROR(SEARCH("signature",N1)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="signature">
+      <formula>NOT(ISERROR(SEARCH("signature",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="removed">
-      <formula>NOT(ISERROR(SEARCH("removed",N1)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="removed">
+      <formula>NOT(ISERROR(SEARCH("removed",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="14" operator="containsText" text="normal">
-      <formula>NOT(ISERROR(SEARCH("normal",N1)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="normal">
+      <formula>NOT(ISERROR(SEARCH("normal",M1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="15" operator="containsText" text="dangerous">
-      <formula>NOT(ISERROR(SEARCH("dangerous",N1)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="dangerous">
+      <formula>NOT(ISERROR(SEARCH("dangerous",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N22">
-    <cfRule type="containsText" dxfId="99" priority="6" operator="containsText" text="other">
-      <formula>NOT(ISERROR(SEARCH("other",N18)))</formula>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="other">
+      <formula>NOT(ISERROR(SEARCH("other",M18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="7" operator="containsText" text="signature">
-      <formula>NOT(ISERROR(SEARCH("signature",N18)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="signature">
+      <formula>NOT(ISERROR(SEARCH("signature",M18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="removed">
-      <formula>NOT(ISERROR(SEARCH("removed",N18)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="removed">
+      <formula>NOT(ISERROR(SEARCH("removed",M18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="normal">
-      <formula>NOT(ISERROR(SEARCH("normal",N18)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="normal">
+      <formula>NOT(ISERROR(SEARCH("normal",M18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="10" operator="containsText" text="dangerous">
-      <formula>NOT(ISERROR(SEARCH("dangerous",N18)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="dangerous">
+      <formula>NOT(ISERROR(SEARCH("dangerous",M18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="other">
-      <formula>NOT(ISERROR(SEARCH("other",N23)))</formula>
+  <conditionalFormatting sqref="M24:M26">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="other">
+      <formula>NOT(ISERROR(SEARCH("other",M24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="2" operator="containsText" text="signature">
-      <formula>NOT(ISERROR(SEARCH("signature",N23)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="signature">
+      <formula>NOT(ISERROR(SEARCH("signature",M24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="removed">
-      <formula>NOT(ISERROR(SEARCH("removed",N23)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="removed">
+      <formula>NOT(ISERROR(SEARCH("removed",M24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="normal">
-      <formula>NOT(ISERROR(SEARCH("normal",N23)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="normal">
+      <formula>NOT(ISERROR(SEARCH("normal",M24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="5" operator="containsText" text="dangerous">
-      <formula>NOT(ISERROR(SEARCH("dangerous",N23)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="dangerous">
+      <formula>NOT(ISERROR(SEARCH("dangerous",M24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19601,70 +19707,70 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576 E1:E1048576 I1:I1048576">
-    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="51" priority="19" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="50" priority="20" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N17">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N22">
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="44" priority="6" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19676,8 +19782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4DCDBE-75EE-497B-BAA1-4A666D9F897F}">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:K1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22728,70 +22834,70 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576 E1:E1048576 I1:I1048576">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N17">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N22">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="other">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="other">
       <formula>NOT(ISERROR(SEARCH("other",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="signature">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="signature">
       <formula>NOT(ISERROR(SEARCH("signature",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="removed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="removed">
       <formula>NOT(ISERROR(SEARCH("removed",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="normal">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="normal">
       <formula>NOT(ISERROR(SEARCH("normal",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="dangerous">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="dangerous">
       <formula>NOT(ISERROR(SEARCH("dangerous",N23)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Permission Stats.xlsx
+++ b/Permission Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Graduation-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4915C7FF-27F0-4B74-8D7B-3453A017F1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D85A614-1D46-4FAD-B020-9FA40278DE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="958" activeTab="3" xr2:uid="{BD4AB7C3-B4B0-443E-94FF-7E4EBBAEED08}"/>
   </bookViews>
@@ -771,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +788,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -817,8 +824,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -843,6 +851,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,16 +869,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="150">
     <dxf>
@@ -2256,18 +2265,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6183,18 +6192,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10129,18 +10138,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -14071,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5930FEDB-987C-4F5F-B91F-0CAEB1F465E1}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14089,36 +14098,36 @@
     <col min="10" max="10" width="1.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="5" customWidth="1"/>
     <col min="12" max="12" width="46" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="24" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="5" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>240</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -14131,13 +14140,13 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="24">
         <v>0.85</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="24">
         <v>0.8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="24">
         <v>0.83</v>
       </c>
       <c r="F2" s="11"/>
@@ -14156,7 +14165,7 @@
       <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="24">
         <v>0.15</v>
       </c>
       <c r="N2" s="5"/>
@@ -14171,13 +14180,13 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="24">
         <v>0.75</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="24">
         <v>0.7</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="24">
         <v>0.73</v>
       </c>
       <c r="F3" s="11"/>
@@ -14196,7 +14205,7 @@
       <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="24">
         <v>0.1</v>
       </c>
       <c r="N3" s="5"/>
@@ -14211,13 +14220,13 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="24">
         <v>0.75</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="24">
         <v>0.7</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="24">
         <v>0.73</v>
       </c>
       <c r="F4" s="11"/>
@@ -14236,7 +14245,7 @@
       <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="24">
         <v>0.3</v>
       </c>
       <c r="N4" s="5"/>
@@ -14251,13 +14260,13 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="24">
         <v>0.7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="24">
         <v>0.6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="24">
         <v>0.65</v>
       </c>
       <c r="F5" s="11"/>
@@ -14276,7 +14285,7 @@
       <c r="L5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="24">
         <v>0.15</v>
       </c>
       <c r="N5" s="5"/>
@@ -14291,13 +14300,13 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="24">
         <v>0.7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="24">
         <v>0.65</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="24">
         <v>0.68</v>
       </c>
       <c r="F6" s="11"/>
@@ -14316,7 +14325,7 @@
       <c r="L6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="24">
         <v>0.1</v>
       </c>
       <c r="N6" s="5"/>
@@ -14331,13 +14340,13 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="24">
         <v>0.7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="24">
         <v>0.65</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="24">
         <v>0.68</v>
       </c>
       <c r="F7" s="11"/>
@@ -14356,7 +14365,7 @@
       <c r="L7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="24">
         <v>0.05</v>
       </c>
       <c r="N7" s="5"/>
@@ -14371,13 +14380,13 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="24">
         <v>0.5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="24">
         <v>0.53</v>
       </c>
       <c r="F8" s="11"/>
@@ -14396,7 +14405,7 @@
       <c r="L8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="24">
         <v>0.05</v>
       </c>
       <c r="N8" s="5"/>
@@ -14411,13 +14420,13 @@
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="24">
         <v>0.5</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="24">
         <v>0.7</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="24">
         <v>0.6</v>
       </c>
       <c r="F9" s="11"/>
@@ -14436,7 +14445,7 @@
       <c r="L9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="24">
         <v>0.4</v>
       </c>
       <c r="N9" s="5"/>
@@ -14451,13 +14460,13 @@
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="24">
         <v>0.5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="24">
         <v>0.1</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="24">
         <v>0.3</v>
       </c>
       <c r="F10" s="11"/>
@@ -14476,7 +14485,7 @@
       <c r="L10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="24">
         <v>0.4</v>
       </c>
       <c r="N10" s="5"/>
@@ -14491,13 +14500,13 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="24">
         <v>0.5</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="24">
         <v>0.15</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="24">
         <v>0.33</v>
       </c>
       <c r="F11" s="11"/>
@@ -14516,7 +14525,7 @@
       <c r="L11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="24">
         <v>0.35</v>
       </c>
       <c r="N11" s="5"/>
@@ -14531,13 +14540,13 @@
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="24">
         <v>0.45</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="24">
         <v>0.7</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="24">
         <v>0.56999999999999995</v>
       </c>
       <c r="F12" s="11"/>
@@ -14556,7 +14565,7 @@
       <c r="L12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="24">
         <v>0.35</v>
       </c>
       <c r="N12" s="5"/>
@@ -14571,13 +14580,13 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="24">
         <v>0.35</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="24">
         <v>0.25</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="24">
         <v>0.3</v>
       </c>
       <c r="F13" s="11"/>
@@ -14596,7 +14605,7 @@
       <c r="L13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="24">
         <v>0.35</v>
       </c>
       <c r="N13" s="5"/>
@@ -14611,13 +14620,13 @@
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="24">
         <v>0.3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="24">
         <v>0.15</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="24">
         <v>0.23</v>
       </c>
       <c r="F14" s="11"/>
@@ -14636,7 +14645,7 @@
       <c r="L14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="24">
         <v>0.3</v>
       </c>
       <c r="N14" s="5"/>
@@ -14651,13 +14660,13 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="24">
         <v>0.25</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="24">
         <v>0.15</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="24">
         <v>0.2</v>
       </c>
       <c r="F15" s="11"/>
@@ -14676,7 +14685,7 @@
       <c r="L15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="24">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -14691,13 +14700,13 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="24">
         <v>0.25</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="24">
         <v>0.2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="24">
         <v>0.23</v>
       </c>
       <c r="F16" s="11"/>
@@ -14716,7 +14725,7 @@
       <c r="L16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="24">
         <v>0.2</v>
       </c>
       <c r="N16" s="5"/>
@@ -14731,13 +14740,13 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="24">
         <v>0.25</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="24">
         <v>0.15</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="24">
         <v>0.2</v>
       </c>
       <c r="F17" s="11"/>
@@ -14756,7 +14765,7 @@
       <c r="L17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="24">
         <v>0.2</v>
       </c>
       <c r="N17" s="5"/>
@@ -14771,13 +14780,13 @@
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="24">
         <v>0.1</v>
       </c>
-      <c r="D18" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="24">
         <v>0.08</v>
       </c>
       <c r="F18" s="11"/>
@@ -14796,7 +14805,7 @@
       <c r="L18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="24">
         <v>0.2</v>
       </c>
       <c r="N18" s="5"/>
@@ -14811,13 +14820,13 @@
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="24">
         <v>0.2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="24">
         <v>0.13</v>
       </c>
       <c r="F19" s="11"/>
@@ -14836,7 +14845,7 @@
       <c r="L19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="24">
         <v>0.15</v>
       </c>
       <c r="N19" s="5"/>
@@ -14851,13 +14860,13 @@
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="24">
         <v>0.95</v>
       </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
         <v>0.98</v>
       </c>
       <c r="F20" s="11"/>
@@ -14876,7 +14885,7 @@
       <c r="L20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="24">
         <v>0.15</v>
       </c>
       <c r="N20" s="5"/>
@@ -14891,13 +14900,13 @@
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="24">
         <v>0.95</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24">
         <v>0.98</v>
       </c>
       <c r="F21" s="11"/>
@@ -14916,7 +14925,7 @@
       <c r="L21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="24">
         <v>0.1</v>
       </c>
       <c r="N21" s="5"/>
@@ -14931,13 +14940,13 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="24">
         <v>0.95</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
         <v>0.98</v>
       </c>
       <c r="F22" s="11"/>
@@ -14956,7 +14965,7 @@
       <c r="L22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="24">
         <v>0.1</v>
       </c>
       <c r="N22" s="5"/>
@@ -14971,13 +14980,13 @@
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="24">
         <v>0.75</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="24">
         <v>0.8</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="24">
         <v>0.78</v>
       </c>
       <c r="F23" s="11"/>
@@ -14996,7 +15005,7 @@
       <c r="L23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="24">
         <v>0.1</v>
       </c>
       <c r="N23" s="5"/>
@@ -15011,13 +15020,13 @@
       <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="24">
         <v>0.7</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="24">
         <v>0.85</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="24">
         <v>0.78</v>
       </c>
       <c r="F24" s="11"/>
@@ -15036,7 +15045,7 @@
       <c r="L24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="24">
         <v>0.1</v>
       </c>
       <c r="N24" s="5"/>
@@ -15051,13 +15060,13 @@
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="24">
         <v>0.45</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="24">
         <v>0.4</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="24">
         <v>0.43</v>
       </c>
       <c r="F25" s="11"/>
@@ -15076,7 +15085,7 @@
       <c r="L25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="24">
         <v>0.1</v>
       </c>
       <c r="N25" s="5"/>
@@ -15091,13 +15100,13 @@
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="24">
         <v>0.4</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="24">
         <v>0.5</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="24">
         <v>0.45</v>
       </c>
       <c r="F26" s="11"/>
@@ -15116,7 +15125,7 @@
       <c r="L26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="24">
         <v>0.1</v>
       </c>
       <c r="N26" s="5"/>
@@ -15131,13 +15140,13 @@
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="24">
         <v>0.35</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="24">
         <v>0.85</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="24">
         <v>0.6</v>
       </c>
       <c r="F27" s="11"/>
@@ -15156,7 +15165,7 @@
       <c r="L27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="24">
         <v>0.1</v>
       </c>
       <c r="N27" s="5"/>
@@ -15171,13 +15180,13 @@
       <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="24">
         <v>0.3</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="24">
         <v>0.43</v>
       </c>
       <c r="F28" s="11"/>
@@ -15196,7 +15205,7 @@
       <c r="L28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="24">
         <v>0.1</v>
       </c>
       <c r="N28" s="5"/>
@@ -15211,13 +15220,13 @@
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="24">
         <v>0.25</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="24">
         <v>0.7</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="24">
         <v>0.48</v>
       </c>
       <c r="F29" s="11"/>
@@ -15236,7 +15245,7 @@
       <c r="L29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="24">
         <v>0.1</v>
       </c>
       <c r="N29" s="5"/>
@@ -15251,13 +15260,13 @@
       <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="24">
         <v>0.2</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="24">
         <v>0.25</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="24">
         <v>0.23</v>
       </c>
       <c r="F30" s="11"/>
@@ -15276,7 +15285,7 @@
       <c r="L30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="24">
         <v>0.1</v>
       </c>
       <c r="N30" s="5"/>
@@ -15291,13 +15300,13 @@
       <c r="B31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="24">
         <v>0.2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="24">
         <v>0.15</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="24">
         <v>0.18</v>
       </c>
       <c r="F31" s="11"/>
@@ -15316,7 +15325,7 @@
       <c r="L31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="24">
         <v>0.05</v>
       </c>
       <c r="N31" s="5"/>
@@ -15331,13 +15340,13 @@
       <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="24">
         <v>0.1</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="24">
         <v>0.45</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="F32" s="11"/>
@@ -15356,7 +15365,7 @@
       <c r="L32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="24">
         <v>0.05</v>
       </c>
       <c r="N32" s="5"/>
@@ -15371,13 +15380,13 @@
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="24">
         <v>0.1</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="24">
         <v>0.35</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="24">
         <v>0.23</v>
       </c>
       <c r="F33" s="11"/>
@@ -15396,7 +15405,7 @@
       <c r="L33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="24">
         <v>0.05</v>
       </c>
       <c r="N33" s="5"/>
@@ -15411,13 +15420,13 @@
       <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="24">
         <v>0.1</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="24">
         <v>0.15</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="24">
         <v>0.13</v>
       </c>
       <c r="F34" s="11"/>
@@ -15436,7 +15445,7 @@
       <c r="L34" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="24">
         <v>0.05</v>
       </c>
       <c r="N34" s="5"/>
@@ -15451,13 +15460,13 @@
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="24">
         <v>0.15</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="24">
         <v>0.1</v>
       </c>
       <c r="F35" s="11"/>
@@ -15476,7 +15485,7 @@
       <c r="L35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="24">
         <v>0.1</v>
       </c>
       <c r="N35" s="5"/>
@@ -15491,13 +15500,13 @@
       <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="24">
         <v>0.2</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="24">
         <v>0.13</v>
       </c>
       <c r="F36" s="11"/>
@@ -15516,7 +15525,7 @@
       <c r="L36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="24">
         <v>0.05</v>
       </c>
       <c r="N36" s="5"/>
@@ -15531,13 +15540,13 @@
       <c r="B37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D37" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="13">
+      <c r="C37" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="24">
         <v>0.05</v>
       </c>
       <c r="F37" s="11"/>
@@ -15556,7 +15565,7 @@
       <c r="L37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="24">
         <v>0.05</v>
       </c>
       <c r="N37" s="5"/>
@@ -15571,13 +15580,13 @@
       <c r="B38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="C38" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="24">
         <v>0.05</v>
       </c>
       <c r="F38" s="11"/>
@@ -15596,7 +15605,7 @@
       <c r="L38" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="24">
         <v>0.05</v>
       </c>
       <c r="N38" s="5"/>
@@ -15611,13 +15620,13 @@
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D39" s="24">
         <v>0.4</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="24">
         <v>0.23</v>
       </c>
       <c r="F39" s="11"/>
@@ -15636,7 +15645,7 @@
       <c r="L39" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="24">
         <v>0.05</v>
       </c>
       <c r="N39" s="5"/>
@@ -15651,13 +15660,13 @@
       <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D40" s="24">
         <v>0.25</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="24">
         <v>0.15</v>
       </c>
       <c r="F40" s="11"/>
@@ -15676,7 +15685,7 @@
       <c r="L40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="24">
         <v>0.05</v>
       </c>
       <c r="N40" s="5"/>
@@ -15691,13 +15700,13 @@
       <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="24">
         <v>0.1</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="24">
         <v>0.08</v>
       </c>
       <c r="F41" s="11"/>
@@ -15716,7 +15725,7 @@
       <c r="L41" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="24">
         <v>0.05</v>
       </c>
       <c r="N41" s="5"/>
@@ -15731,13 +15740,13 @@
       <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="24">
         <v>0.35</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="24">
         <v>0.2</v>
       </c>
       <c r="F42" s="11"/>
@@ -15756,7 +15765,7 @@
       <c r="L42" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="24">
         <v>0.05</v>
       </c>
       <c r="N42" s="5"/>
@@ -15771,13 +15780,13 @@
       <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="C43" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="24">
         <v>0.45</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="24">
         <v>0.25</v>
       </c>
       <c r="F43" s="11"/>
@@ -15796,7 +15805,7 @@
       <c r="L43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="24">
         <v>0.05</v>
       </c>
       <c r="N43" s="5"/>
@@ -15811,13 +15820,13 @@
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="C44" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D44" s="24">
         <v>0.2</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="24">
         <v>0.13</v>
       </c>
       <c r="F44" s="11"/>
@@ -15836,7 +15845,7 @@
       <c r="L44" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="24">
         <v>0.05</v>
       </c>
       <c r="N44" s="5"/>
@@ -15851,13 +15860,13 @@
       <c r="B45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="24">
         <v>0.65</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="24">
         <v>0.9</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="24">
         <v>0.78</v>
       </c>
       <c r="F45" s="11"/>
@@ -15876,7 +15885,7 @@
       <c r="L45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="24">
         <v>0.05</v>
       </c>
       <c r="N45" s="5"/>
@@ -15891,13 +15900,13 @@
       <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="24">
         <v>0.4</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="24">
         <v>0.6</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="24">
         <v>0.5</v>
       </c>
       <c r="F46" s="11"/>
@@ -15916,7 +15925,7 @@
       <c r="L46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="24">
         <v>0.05</v>
       </c>
       <c r="N46" s="5"/>
@@ -15931,13 +15940,13 @@
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="24">
         <v>0.3</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="24">
         <v>0.35</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="24">
         <v>0.33</v>
       </c>
       <c r="F47" s="12"/>
@@ -15956,7 +15965,7 @@
       <c r="L47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="24">
         <v>0.05</v>
       </c>
       <c r="N47" s="5"/>
@@ -15971,13 +15980,13 @@
       <c r="B48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="24">
         <v>0.1</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="24">
         <v>0.2</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="24">
         <v>0.15</v>
       </c>
       <c r="F48" s="12"/>
@@ -15996,7 +16005,7 @@
       <c r="L48" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="24">
         <v>0.05</v>
       </c>
       <c r="N48" s="5"/>
@@ -16011,13 +16020,13 @@
       <c r="B49" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D49" s="13">
+      <c r="C49" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D49" s="24">
         <v>0.1</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="24">
         <v>0.08</v>
       </c>
       <c r="F49" s="12"/>
@@ -16036,7 +16045,7 @@
       <c r="L49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="24">
         <v>0.05</v>
       </c>
       <c r="N49" s="5"/>
@@ -16051,13 +16060,13 @@
       <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D50" s="13">
+      <c r="C50" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D50" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="24">
         <v>0.3</v>
       </c>
       <c r="F50" s="12"/>
@@ -16076,7 +16085,7 @@
       <c r="L50" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="24">
         <v>0.05</v>
       </c>
       <c r="N50" s="5"/>
@@ -16091,13 +16100,13 @@
       <c r="B51" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="24">
         <v>0.15</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="24">
         <v>0.4</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="24">
         <v>0.28000000000000003</v>
       </c>
       <c r="F51" s="12"/>
@@ -16116,7 +16125,7 @@
       <c r="L51" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="24">
         <v>0.05</v>
       </c>
       <c r="N51" s="5"/>
@@ -16131,13 +16140,13 @@
       <c r="B52" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="24">
         <v>0.15</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="24">
         <v>0.5</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="24">
         <v>0.33</v>
       </c>
       <c r="F52" s="12"/>
@@ -16156,7 +16165,7 @@
       <c r="L52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="24">
         <v>0.05</v>
       </c>
       <c r="N52" s="5"/>
@@ -16171,13 +16180,13 @@
       <c r="B53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="24">
         <v>0.1</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="24">
         <v>0.15</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="24">
         <v>0.13</v>
       </c>
       <c r="F53" s="12"/>
@@ -16196,7 +16205,7 @@
       <c r="L53" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="24">
         <v>0.05</v>
       </c>
       <c r="N53" s="5"/>
@@ -16211,13 +16220,13 @@
       <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="24">
         <v>0.1</v>
       </c>
-      <c r="D54" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="D54" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E54" s="24">
         <v>0.08</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -16235,7 +16244,7 @@
       <c r="L54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="24">
         <v>0.05</v>
       </c>
       <c r="N54" s="5"/>
@@ -16250,13 +16259,13 @@
       <c r="B55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D55" s="13">
+      <c r="C55" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D55" s="24">
         <v>0.35</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="24">
         <v>0.2</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -16274,7 +16283,7 @@
       <c r="L55" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="24">
         <v>0.05</v>
       </c>
       <c r="N55" s="5"/>
@@ -16289,13 +16298,13 @@
       <c r="B56" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D56" s="13">
+      <c r="C56" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D56" s="24">
         <v>0.45</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="24">
         <v>0.25</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -16313,7 +16322,7 @@
       <c r="L56" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="24">
         <v>0.05</v>
       </c>
       <c r="N56" s="5"/>
@@ -16328,13 +16337,13 @@
       <c r="B57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="24">
         <v>0.45</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="24">
         <v>0.25</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="24">
         <v>0.35</v>
       </c>
       <c r="K57" s="6" t="s">
@@ -16343,7 +16352,7 @@
       <c r="L57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="24">
         <v>0.05</v>
       </c>
       <c r="N57" s="5"/>
@@ -16358,13 +16367,13 @@
       <c r="B58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="24">
         <v>0.3</v>
       </c>
-      <c r="D58" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E58" s="13">
+      <c r="D58" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E58" s="24">
         <v>0.18</v>
       </c>
       <c r="K58" s="6" t="s">
@@ -16373,7 +16382,7 @@
       <c r="L58" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="24">
         <v>0.05</v>
       </c>
       <c r="N58" s="5"/>
@@ -16388,13 +16397,13 @@
       <c r="B59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="24">
         <v>0.1</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="24">
         <v>0.1</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="24">
         <v>0.1</v>
       </c>
       <c r="K59" s="9" t="s">
@@ -16403,7 +16412,7 @@
       <c r="L59" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="24">
         <v>0.05</v>
       </c>
       <c r="N59" s="5"/>
@@ -16418,13 +16427,13 @@
       <c r="B60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D60" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E60" s="13">
+      <c r="C60" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E60" s="24">
         <v>0.05</v>
       </c>
       <c r="K60" s="9" t="s">
@@ -16433,7 +16442,7 @@
       <c r="L60" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="24">
         <v>0.05</v>
       </c>
       <c r="N60" s="5"/>
@@ -16453,7 +16462,7 @@
       <c r="L61" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="24">
         <v>0.05</v>
       </c>
       <c r="N61" s="5"/>
@@ -16473,7 +16482,7 @@
       <c r="L62" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="24">
         <v>0.05</v>
       </c>
       <c r="N62" s="5"/>
@@ -16493,7 +16502,7 @@
       <c r="L63" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="24">
         <v>0.05</v>
       </c>
       <c r="N63" s="5"/>
@@ -16513,7 +16522,7 @@
       <c r="L64" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="24">
         <v>0.05</v>
       </c>
       <c r="N64" s="5"/>
@@ -16533,7 +16542,7 @@
       <c r="L65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="24">
         <v>0.05</v>
       </c>
       <c r="N65" s="5"/>
@@ -16553,7 +16562,7 @@
       <c r="L66" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="24">
         <v>0.05</v>
       </c>
       <c r="N66" s="5"/>
@@ -16573,7 +16582,7 @@
       <c r="L67" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="24">
         <v>0.05</v>
       </c>
       <c r="N67" s="5"/>
@@ -16593,7 +16602,7 @@
       <c r="L68" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="24">
         <v>0.05</v>
       </c>
       <c r="N68" s="5"/>
@@ -16613,7 +16622,7 @@
       <c r="L69" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="24">
         <v>0.05</v>
       </c>
       <c r="N69" s="5"/>
@@ -16633,7 +16642,7 @@
       <c r="L70" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="24">
         <v>0.05</v>
       </c>
       <c r="N70" s="5"/>
@@ -16653,7 +16662,7 @@
       <c r="L71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="24">
         <v>0.05</v>
       </c>
       <c r="N71" s="5"/>
@@ -16673,7 +16682,7 @@
       <c r="L72" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="24">
         <v>0.05</v>
       </c>
       <c r="N72" s="5"/>
@@ -16693,7 +16702,7 @@
       <c r="L73" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="24">
         <v>0.05</v>
       </c>
       <c r="N73" s="5"/>
@@ -16713,7 +16722,7 @@
       <c r="L74" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="24">
         <v>0.05</v>
       </c>
       <c r="N74" s="5"/>
@@ -16733,7 +16742,7 @@
       <c r="L75" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="24">
         <v>0.05</v>
       </c>
       <c r="N75" s="5"/>
@@ -16753,7 +16762,7 @@
       <c r="L76" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="24">
         <v>0.05</v>
       </c>
       <c r="N76" s="5"/>
@@ -16773,7 +16782,7 @@
       <c r="L77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="24">
         <v>0.05</v>
       </c>
       <c r="N77" s="5"/>
@@ -16793,7 +16802,7 @@
       <c r="L78" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M78" s="24">
         <v>0.05</v>
       </c>
       <c r="N78" s="5"/>
@@ -16813,7 +16822,7 @@
       <c r="L79" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="24">
         <v>0.05</v>
       </c>
       <c r="N79" s="5"/>
@@ -16833,7 +16842,7 @@
       <c r="L80" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="24">
         <v>0.05</v>
       </c>
       <c r="N80" s="5"/>
@@ -16853,7 +16862,7 @@
       <c r="L81" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="24">
         <v>0.05</v>
       </c>
       <c r="N81" s="5"/>
@@ -16873,7 +16882,7 @@
       <c r="L82" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="24">
         <v>0.05</v>
       </c>
       <c r="N82" s="5"/>
@@ -16893,7 +16902,7 @@
       <c r="L83" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="24">
         <v>0.05</v>
       </c>
       <c r="N83" s="5"/>
@@ -16913,7 +16922,7 @@
       <c r="L84" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="24">
         <v>0.05</v>
       </c>
       <c r="N84" s="5"/>
@@ -16933,7 +16942,7 @@
       <c r="L85" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="24">
         <v>0.05</v>
       </c>
       <c r="N85" s="5"/>
@@ -16953,7 +16962,7 @@
       <c r="L86" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="24">
         <v>0.05</v>
       </c>
       <c r="N86" s="5"/>
@@ -16973,7 +16982,7 @@
       <c r="L87" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="24">
         <v>0.05</v>
       </c>
       <c r="N87" s="5"/>
@@ -16993,7 +17002,7 @@
       <c r="L88" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="24">
         <v>0.05</v>
       </c>
       <c r="N88" s="5"/>
@@ -17013,7 +17022,7 @@
       <c r="L89" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="24">
         <v>0.05</v>
       </c>
       <c r="N89" s="5"/>
@@ -17033,7 +17042,7 @@
       <c r="L90" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="24">
         <v>0.05</v>
       </c>
       <c r="N90" s="5"/>
@@ -17053,7 +17062,7 @@
       <c r="L91" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="24">
         <v>0.05</v>
       </c>
       <c r="N91" s="5"/>
@@ -17073,7 +17082,7 @@
       <c r="L92" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="24">
         <v>0.05</v>
       </c>
       <c r="N92" s="5"/>
@@ -17093,7 +17102,7 @@
       <c r="L93" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="24">
         <v>0.05</v>
       </c>
       <c r="N93" s="5"/>
@@ -17113,7 +17122,7 @@
       <c r="L94" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="24">
         <v>0.05</v>
       </c>
       <c r="N94" s="5"/>
@@ -17133,7 +17142,7 @@
       <c r="L95" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="24">
         <v>0.05</v>
       </c>
       <c r="N95" s="5"/>
@@ -17153,7 +17162,7 @@
       <c r="L96" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="24">
         <v>0.05</v>
       </c>
       <c r="N96" s="5"/>
@@ -17173,7 +17182,7 @@
       <c r="L97" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="24">
         <v>0.05</v>
       </c>
       <c r="N97" s="5"/>
@@ -17193,7 +17202,7 @@
       <c r="L98" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="24">
         <v>0.05</v>
       </c>
       <c r="N98" s="5"/>
@@ -17213,7 +17222,7 @@
       <c r="L99" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="24">
         <v>0.05</v>
       </c>
       <c r="N99" s="5"/>
@@ -17233,7 +17242,7 @@
       <c r="L100" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="13">
+      <c r="M100" s="24">
         <v>0.05</v>
       </c>
       <c r="N100" s="5"/>
@@ -17253,7 +17262,7 @@
       <c r="L101" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="24">
         <v>0.05</v>
       </c>
       <c r="N101" s="5"/>
@@ -17273,7 +17282,7 @@
       <c r="L102" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="24">
         <v>0.05</v>
       </c>
       <c r="N102" s="5"/>
@@ -17293,7 +17302,7 @@
       <c r="L103" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M103" s="13">
+      <c r="M103" s="24">
         <v>0.05</v>
       </c>
       <c r="N103" s="5"/>
@@ -17313,7 +17322,7 @@
       <c r="L104" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="24">
         <v>0.05</v>
       </c>
       <c r="N104" s="5"/>
@@ -17333,7 +17342,7 @@
       <c r="L105" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="24">
         <v>0.05</v>
       </c>
       <c r="N105" s="5"/>
@@ -17353,7 +17362,7 @@
       <c r="L106" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="24">
         <v>0.05</v>
       </c>
       <c r="N106" s="5"/>
@@ -17373,7 +17382,7 @@
       <c r="L107" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M107" s="13">
+      <c r="M107" s="24">
         <v>0.05</v>
       </c>
       <c r="N107" s="5"/>
@@ -17393,7 +17402,7 @@
       <c r="L108" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M108" s="13">
+      <c r="M108" s="24">
         <v>0.05</v>
       </c>
       <c r="N108" s="5"/>
@@ -17413,7 +17422,7 @@
       <c r="L109" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M109" s="13">
+      <c r="M109" s="24">
         <v>0.05</v>
       </c>
       <c r="N109" s="5"/>
@@ -17433,7 +17442,7 @@
       <c r="L110" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M110" s="13">
+      <c r="M110" s="24">
         <v>0.05</v>
       </c>
       <c r="N110" s="5"/>
@@ -17453,7 +17462,7 @@
       <c r="L111" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="M111" s="13">
+      <c r="M111" s="24">
         <v>0.05</v>
       </c>
       <c r="N111" s="5"/>
@@ -17473,7 +17482,7 @@
       <c r="L112" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M112" s="13">
+      <c r="M112" s="24">
         <v>0.05</v>
       </c>
       <c r="N112" s="5"/>
@@ -17493,7 +17502,7 @@
       <c r="L113" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="M113" s="13">
+      <c r="M113" s="24">
         <v>0.05</v>
       </c>
       <c r="N113" s="5"/>
@@ -17513,7 +17522,7 @@
       <c r="L114" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M114" s="13">
+      <c r="M114" s="24">
         <v>0.05</v>
       </c>
       <c r="N114" s="5"/>
@@ -17533,7 +17542,7 @@
       <c r="L115" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M115" s="13">
+      <c r="M115" s="24">
         <v>0.05</v>
       </c>
       <c r="N115" s="5"/>
@@ -17553,7 +17562,7 @@
       <c r="L116" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M116" s="13">
+      <c r="M116" s="24">
         <v>0.05</v>
       </c>
       <c r="N116" s="5"/>
@@ -17763,30 +17772,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>240</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -21446,30 +21455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>240</v>
       </c>
       <c r="F1" s="10"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
